--- a/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
+++ b/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="11055"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pretty Table" sheetId="4" r:id="rId1"/>
+    <sheet name="Raw Table and Graphs" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>CPU Speed</t>
   </si>
@@ -56,15 +55,54 @@
   <si>
     <t>180 MHz "WFI"</t>
   </si>
+  <si>
+    <t>CPU Speed (MHz)</t>
+  </si>
+  <si>
+    <t>Using
+asm(" WFI")</t>
+  </si>
+  <si>
+    <t>WFI vs delay()</t>
+  </si>
+  <si>
+    <t>mA/MHz</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Using
+delay()</t>
+  </si>
+  <si>
+    <t>180 MHz
+delay()</t>
+  </si>
+  <si>
+    <t>180 MHz
+asm(" WFI");</t>
+  </si>
+  <si>
+    <t>Estimated Battery Life</t>
+  </si>
+  <si>
+    <t>Capacity
+(mA-hr)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +125,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,17 +191,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +283,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,7 +321,32 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Teensy 3.6 Current Draw</a:t>
+              <a:t>Measured</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Current Draw</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Teensy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> 3.6, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Gain Only, Two SPW2430 Mics</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -171,9 +362,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14497462817147858"/>
-          <c:y val="0.16767172302744401"/>
+          <c:y val="0.19480351425365142"/>
           <c:w val="0.74256649168853894"/>
-          <c:h val="0.61817695726575028"/>
+          <c:h val="0.59104516603954282"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -184,7 +375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>'Raw Table and Graphs'!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -195,7 +386,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$19</c:f>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -237,7 +428,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$19</c:f>
+              <c:f>'Raw Table and Graphs'!$C$9:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -284,7 +475,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$8</c:f>
+              <c:f>'Raw Table and Graphs'!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -295,7 +486,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$19</c:f>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -337,7 +528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$19</c:f>
+              <c:f>'Raw Table and Graphs'!$D$9:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -387,11 +578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174804352"/>
-        <c:axId val="174810624"/>
+        <c:axId val="145123968"/>
+        <c:axId val="145130240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174804352"/>
+        <c:axId val="145123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -422,13 +613,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174810624"/>
+        <c:crossAx val="145130240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174810624"/>
+        <c:axId val="145130240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174804352"/>
+        <c:crossAx val="145123968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -469,10 +660,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.166999343832021"/>
-          <c:y val="0.20008582069395736"/>
+          <c:x val="0.16144378827646541"/>
+          <c:y val="0.22721761192016479"/>
           <c:w val="0.28855621172353457"/>
-          <c:h val="0.14017766592738384"/>
+          <c:h val="0.12079781505152141"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -524,7 +715,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$19</c:f>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -566,7 +757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$19</c:f>
+              <c:f>'Raw Table and Graphs'!$F$9:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -616,11 +807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174831488"/>
-        <c:axId val="174833024"/>
+        <c:axId val="145147008"/>
+        <c:axId val="145148544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174831488"/>
+        <c:axId val="145147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -632,13 +823,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174833024"/>
+        <c:crossAx val="145148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174833024"/>
+        <c:axId val="145148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174831488"/>
+        <c:crossAx val="145147008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -730,7 +921,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>'Raw Table and Graphs'!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -741,7 +932,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$19</c:f>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -783,7 +974,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$9:$H$19</c:f>
+              <c:f>'Raw Table and Graphs'!$H$9:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -830,7 +1021,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$8</c:f>
+              <c:f>'Raw Table and Graphs'!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +1032,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$19</c:f>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -883,7 +1074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$9:$I$19</c:f>
+              <c:f>'Raw Table and Graphs'!$I$9:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -933,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174867968"/>
-        <c:axId val="174869888"/>
+        <c:axId val="145361920"/>
+        <c:axId val="145392768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174867968"/>
+        <c:axId val="145361920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -968,13 +1159,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174869888"/>
+        <c:crossAx val="145392768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174869888"/>
+        <c:axId val="145392768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1005,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174867968"/>
+        <c:crossAx val="145361920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1071,7 +1262,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Teensy 3.6 Battery Life</a:t>
+              <a:t>Estimated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Life</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1080,7 +1279,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>180 MHz, GainOnly.ino</a:t>
+              <a:t>Teensy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> 3.6, Gain Only, Two SPW2430 Mics</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1110,7 +1313,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$8</c:f>
+              <c:f>'Raw Table and Graphs'!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1121,7 +1324,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$9:$L$19</c:f>
+              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1154,7 +1357,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$M$19</c:f>
+              <c:f>'Raw Table and Graphs'!$M$9:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1192,7 +1395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$8</c:f>
+              <c:f>'Raw Table and Graphs'!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1203,7 +1406,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$9:$L$19</c:f>
+              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1236,7 +1439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$9:$N$19</c:f>
+              <c:f>'Raw Table and Graphs'!$N$9:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1277,11 +1480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45713664"/>
-        <c:axId val="45728128"/>
+        <c:axId val="149970944"/>
+        <c:axId val="149972864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45713664"/>
+        <c:axId val="149970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200"/>
@@ -1316,15 +1519,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45728128"/>
+        <c:crossAx val="149972864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45728128"/>
+        <c:axId val="149972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="18"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1352,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45713664"/>
+        <c:crossAx val="149970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1390,6 +1593,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1521,7 +1725,322 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3629025" y="4552950"/>
+          <a:ext cx="0" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="606063" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="5886450"/>
+          <a:ext cx="606063" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Default</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Speed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36111</cdr:x>
+      <cdr:y>0.2064</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36111</cdr:x>
+      <cdr:y>0.78488</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1651000" y="676275"/>
+          <a:ext cx="0" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2902</cdr:x>
+      <cdr:y>0.23643</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42291</cdr:x>
+      <cdr:y>0.36974</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1326798" y="774700"/>
+          <a:ext cx="606769" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>My</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Battery</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1811,10 +2330,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="15.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="16" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>C8</f>
+        <v>Using
+delay()</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f>D8</f>
+        <v>Using
+asm(" WFI")</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="17">
+        <v>240</v>
+      </c>
+      <c r="C9" s="17">
+        <v>112.4</v>
+      </c>
+      <c r="D9" s="17">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E9" s="18">
+        <f>C9/$B9</f>
+        <v>0.46833333333333338</v>
+      </c>
+      <c r="F9" s="18">
+        <f>D9/$B9</f>
+        <v>0.28083333333333338</v>
+      </c>
+      <c r="G9" s="19">
+        <f>D9/C9</f>
+        <v>0.59964412811387902</v>
+      </c>
+      <c r="J9" s="23">
+        <v>100</v>
+      </c>
+      <c r="K9" s="24">
+        <f>$J9/C$12</f>
+        <v>1.1001100110011</v>
+      </c>
+      <c r="L9" s="24">
+        <f>$J9/D$12</f>
+        <v>1.7452006980802792</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <v>216</v>
+      </c>
+      <c r="C10" s="17">
+        <v>102.8</v>
+      </c>
+      <c r="D10" s="17">
+        <v>62.4</v>
+      </c>
+      <c r="E10" s="18">
+        <f>C10/$B10</f>
+        <v>0.47592592592592592</v>
+      </c>
+      <c r="F10" s="18">
+        <f>D10/$B10</f>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="G10" s="19">
+        <f>D10/C10</f>
+        <v>0.60700389105058361</v>
+      </c>
+      <c r="J10" s="23">
+        <v>150</v>
+      </c>
+      <c r="K10" s="24">
+        <f>$J10/C$12</f>
+        <v>1.6501650165016502</v>
+      </c>
+      <c r="L10" s="24">
+        <f>$J10/D$12</f>
+        <v>2.6178010471204192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17">
+        <v>94.5</v>
+      </c>
+      <c r="D11" s="17">
+        <v>58.2</v>
+      </c>
+      <c r="E11" s="18">
+        <f>C11/$B11</f>
+        <v>0.4921875</v>
+      </c>
+      <c r="F11" s="18">
+        <f>D11/$B11</f>
+        <v>0.30312500000000003</v>
+      </c>
+      <c r="G11" s="19">
+        <f>D11/C11</f>
+        <v>0.61587301587301591</v>
+      </c>
+      <c r="J11" s="20">
+        <v>350</v>
+      </c>
+      <c r="K11" s="21">
+        <f>$J11/C$12</f>
+        <v>3.8503850385038501</v>
+      </c>
+      <c r="L11" s="21">
+        <f>$J11/D$12</f>
+        <v>6.1082024432809776</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>180</v>
+      </c>
+      <c r="C12" s="20">
+        <v>90.9</v>
+      </c>
+      <c r="D12" s="20">
+        <v>57.3</v>
+      </c>
+      <c r="E12" s="21">
+        <f>C12/$B12</f>
+        <v>0.505</v>
+      </c>
+      <c r="F12" s="21">
+        <f>D12/$B12</f>
+        <v>0.3183333333333333</v>
+      </c>
+      <c r="G12" s="22">
+        <f>D12/C12</f>
+        <v>0.63036303630363033</v>
+      </c>
+      <c r="J12" s="23">
+        <v>500</v>
+      </c>
+      <c r="K12" s="24">
+        <f>$J12/C$12</f>
+        <v>5.5005500550055002</v>
+      </c>
+      <c r="L12" s="24">
+        <f>$J12/D$12</f>
+        <v>8.7260034904013963</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="17">
+        <v>168</v>
+      </c>
+      <c r="C13" s="17">
+        <v>86.7</v>
+      </c>
+      <c r="D13" s="17">
+        <v>55.4</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13/$B13</f>
+        <v>0.51607142857142863</v>
+      </c>
+      <c r="F13" s="18">
+        <f>D13/$B13</f>
+        <v>0.32976190476190476</v>
+      </c>
+      <c r="G13" s="19">
+        <f>D13/C13</f>
+        <v>0.63898500576701267</v>
+      </c>
+      <c r="J13" s="23">
+        <v>850</v>
+      </c>
+      <c r="K13" s="24">
+        <f>$J13/C$12</f>
+        <v>9.3509350935093511</v>
+      </c>
+      <c r="L13" s="25">
+        <f>$J13/D$12</f>
+        <v>14.834205933682375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="17">
+        <v>144</v>
+      </c>
+      <c r="C14" s="17">
+        <v>77.5</v>
+      </c>
+      <c r="D14" s="17">
+        <v>50.4</v>
+      </c>
+      <c r="E14" s="18">
+        <f>C14/$B14</f>
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F14" s="18">
+        <f>D14/$B14</f>
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="19">
+        <f>D14/C14</f>
+        <v>0.65032258064516124</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="25">
+        <f>$J14/C$12</f>
+        <v>11.001100110011</v>
+      </c>
+      <c r="L14" s="25">
+        <f>$J14/D$12</f>
+        <v>17.452006980802793</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="17">
+        <v>120</v>
+      </c>
+      <c r="C15" s="17">
+        <v>64.3</v>
+      </c>
+      <c r="D15" s="17">
+        <v>44.3</v>
+      </c>
+      <c r="E15" s="18">
+        <f>C15/$B15</f>
+        <v>0.53583333333333327</v>
+      </c>
+      <c r="F15" s="18">
+        <f>D15/$B15</f>
+        <v>0.36916666666666664</v>
+      </c>
+      <c r="G15" s="19">
+        <f>D15/C15</f>
+        <v>0.68895800933125972</v>
+      </c>
+      <c r="J15" s="23">
+        <v>1200</v>
+      </c>
+      <c r="K15" s="25">
+        <f>$J15/C$12</f>
+        <v>13.201320132013201</v>
+      </c>
+      <c r="L15" s="25">
+        <f>$J15/D$12</f>
+        <v>20.942408376963353</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="17">
+        <v>96</v>
+      </c>
+      <c r="C16" s="17">
+        <v>55.5</v>
+      </c>
+      <c r="D16" s="17">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E16" s="18">
+        <f>C16/$B16</f>
+        <v>0.578125</v>
+      </c>
+      <c r="F16" s="18">
+        <f>D16/$B16</f>
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="G16" s="19">
+        <f>D16/C16</f>
+        <v>0.70630630630630631</v>
+      </c>
+      <c r="J16" s="23">
+        <v>2000</v>
+      </c>
+      <c r="K16" s="25">
+        <f>$J16/C$12</f>
+        <v>22.002200220022001</v>
+      </c>
+      <c r="L16" s="25">
+        <f>$J16/D$12</f>
+        <v>34.904013961605585</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <v>72</v>
+      </c>
+      <c r="C17" s="17">
+        <v>46.6</v>
+      </c>
+      <c r="D17" s="17">
+        <v>34.5</v>
+      </c>
+      <c r="E17" s="18">
+        <f>C17/$B17</f>
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="F17" s="18">
+        <f>D17/$B17</f>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G17" s="19">
+        <f>D17/C17</f>
+        <v>0.74034334763948495</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D18" s="17">
+        <v>33</v>
+      </c>
+      <c r="E18" s="18">
+        <f>C18/$B18</f>
+        <v>0.85</v>
+      </c>
+      <c r="F18" s="18">
+        <f>D18/$B18</f>
+        <v>0.6875</v>
+      </c>
+      <c r="G18" s="19">
+        <f>D18/C18</f>
+        <v>0.80882352941176472</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="17">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17">
+        <v>31.3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>27.7</v>
+      </c>
+      <c r="E19" s="18">
+        <f>C19/$B19</f>
+        <v>1.3041666666666667</v>
+      </c>
+      <c r="F19" s="18">
+        <f>D19/$B19</f>
+        <v>1.1541666666666666</v>
+      </c>
+      <c r="G19" s="19">
+        <f>D19/C19</f>
+        <v>0.88498402555910538</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,11 +2869,11 @@
         <v>100</v>
       </c>
       <c r="M9" s="4">
-        <f>$L9/C$12</f>
+        <f t="shared" ref="M9:N16" si="2">$L9/C$12</f>
         <v>1.1001100110011</v>
       </c>
       <c r="N9" s="4">
-        <f>$L9/D$12</f>
+        <f t="shared" si="2"/>
         <v>1.7452006980802792</v>
       </c>
     </row>
@@ -1924,7 +2888,7 @@
         <v>62.4</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:F19" si="2">D10/C10</f>
+        <f t="shared" ref="F10:F19" si="3">D10/C10</f>
         <v>0.60700389105058361</v>
       </c>
       <c r="H10" s="1">
@@ -1939,11 +2903,11 @@
         <v>150</v>
       </c>
       <c r="M10" s="4">
-        <f>$L10/C$12</f>
+        <f t="shared" si="2"/>
         <v>1.6501650165016502</v>
       </c>
       <c r="N10" s="4">
-        <f>$L10/D$12</f>
+        <f t="shared" si="2"/>
         <v>2.6178010471204192</v>
       </c>
     </row>
@@ -1958,7 +2922,7 @@
         <v>58.2</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61587301587301591</v>
       </c>
       <c r="H11" s="1">
@@ -1973,11 +2937,11 @@
         <v>350</v>
       </c>
       <c r="M11" s="4">
-        <f>$L11/C$12</f>
+        <f t="shared" si="2"/>
         <v>3.8503850385038501</v>
       </c>
       <c r="N11" s="4">
-        <f>$L11/D$12</f>
+        <f t="shared" si="2"/>
         <v>6.1082024432809776</v>
       </c>
     </row>
@@ -1992,7 +2956,7 @@
         <v>57.3</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63036303630363033</v>
       </c>
       <c r="H12" s="1">
@@ -2007,11 +2971,11 @@
         <v>500</v>
       </c>
       <c r="M12" s="4">
-        <f>$L12/C$12</f>
+        <f t="shared" si="2"/>
         <v>5.5005500550055002</v>
       </c>
       <c r="N12" s="4">
-        <f>$L12/D$12</f>
+        <f t="shared" si="2"/>
         <v>8.7260034904013963</v>
       </c>
     </row>
@@ -2026,7 +2990,7 @@
         <v>55.4</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63898500576701267</v>
       </c>
       <c r="H13" s="1">
@@ -2041,11 +3005,11 @@
         <v>850</v>
       </c>
       <c r="M13" s="4">
-        <f>$L13/C$12</f>
+        <f t="shared" si="2"/>
         <v>9.3509350935093511</v>
       </c>
       <c r="N13" s="4">
-        <f>$L13/D$12</f>
+        <f t="shared" si="2"/>
         <v>14.834205933682375</v>
       </c>
     </row>
@@ -2060,7 +3024,7 @@
         <v>50.4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65032258064516124</v>
       </c>
       <c r="H14" s="1">
@@ -2075,11 +3039,11 @@
         <v>1000</v>
       </c>
       <c r="M14" s="4">
-        <f>$L14/C$12</f>
+        <f t="shared" si="2"/>
         <v>11.001100110011</v>
       </c>
       <c r="N14" s="4">
-        <f>$L14/D$12</f>
+        <f t="shared" si="2"/>
         <v>17.452006980802793</v>
       </c>
     </row>
@@ -2094,7 +3058,7 @@
         <v>44.3</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68895800933125972</v>
       </c>
       <c r="H15" s="1">
@@ -2109,11 +3073,11 @@
         <v>1200</v>
       </c>
       <c r="M15" s="4">
-        <f>$L15/C$12</f>
+        <f t="shared" si="2"/>
         <v>13.201320132013201</v>
       </c>
       <c r="N15" s="4">
-        <f>$L15/D$12</f>
+        <f t="shared" si="2"/>
         <v>20.942408376963353</v>
       </c>
     </row>
@@ -2128,7 +3092,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70630630630630631</v>
       </c>
       <c r="H16" s="1">
@@ -2143,15 +3107,15 @@
         <v>2000</v>
       </c>
       <c r="M16" s="4">
-        <f>$L16/C$12</f>
+        <f t="shared" si="2"/>
         <v>22.002200220022001</v>
       </c>
       <c r="N16" s="4">
-        <f>$L16/D$12</f>
+        <f t="shared" si="2"/>
         <v>34.904013961605585</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>72</v>
       </c>
@@ -2162,7 +3126,7 @@
         <v>34.5</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74034334763948495</v>
       </c>
       <c r="H17" s="1">
@@ -2174,7 +3138,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>48</v>
       </c>
@@ -2185,7 +3149,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80882352941176472</v>
       </c>
       <c r="H18" s="1">
@@ -2197,7 +3161,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>24</v>
       </c>
@@ -2208,7 +3172,7 @@
         <v>27.7</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88498402555910538</v>
       </c>
       <c r="H19" s="1">
@@ -2218,34 +3182,20 @@
       <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>1.1541666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
+++ b/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="11055"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pretty Table" sheetId="4" r:id="rId1"/>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -223,12 +223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,13 +261,13 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -297,6 +291,913 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$F$9:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.59964412811387902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60700389105058361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61587301587301591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63036303630363033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63898500576701267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65032258064516124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68895800933125972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70630630630630631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74034334763948495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80882352941176472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88498402555910538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222118656"/>
+        <c:axId val="222120192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222118656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="240"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222120192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222120192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222118656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Teensy 3.6 Current</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per MHz</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14497462817147858"/>
+          <c:y val="0.16767172302744401"/>
+          <c:w val="0.74256649168853894"/>
+          <c:h val="0.61817695726575028"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Table and Graphs'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using delay();</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$H$9:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.46833333333333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47592592592592592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4921875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53819444444444442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53583333333333327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3041666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Table and Graphs'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Using asm(" WFI");</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$I$9:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.28083333333333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30312500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3183333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32976190476190476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40833333333333338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1541666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222141056"/>
+        <c:axId val="222364416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222141056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Speed (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222364416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="60"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222364416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current Draw (mA/MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222141056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58088823272090984"/>
+          <c:y val="0.18845791016843991"/>
+          <c:w val="0.28855621172353457"/>
+          <c:h val="0.14017766592738384"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estimated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Life</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Teensy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> 3.6, Gain Only, Two SPW2430 Mics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14497462817147858"/>
+          <c:y val="0.19867948442882391"/>
+          <c:w val="0.74256649168853894"/>
+          <c:h val="0.58716919586437033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Table and Graphs'!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>180 MHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$M$9:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1001100110011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6501650165016502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8503850385038501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5005500550055002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3509350935093511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.001100110011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.201320132013201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.002200220022001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Table and Graphs'!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>180 MHz "WFI"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Table and Graphs'!$N$9:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.7452006980802792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6178010471204192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1082024432809776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7260034904013963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.834205933682375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.452006980802793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.942408376963353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.904013961605585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222386048"/>
+        <c:axId val="222392320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222386048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Battery Capacity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mA-hrs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222392320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222392320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222386048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58644378827646548"/>
+          <c:y val="0.63419448031327608"/>
+          <c:w val="0.28855621172353457"/>
+          <c:h val="0.12079781505152141"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -578,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145123968"/>
-        <c:axId val="145130240"/>
+        <c:axId val="222091520"/>
+        <c:axId val="222093696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145123968"/>
+        <c:axId val="222091520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -613,13 +1514,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145130240"/>
+        <c:crossAx val="222093696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145130240"/>
+        <c:axId val="222093696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145123968"/>
+        <c:crossAx val="222091520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -690,945 +1591,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$F$9:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.59964412811387902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60700389105058361</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61587301587301591</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63036303630363033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63898500576701267</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65032258064516124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68895800933125972</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70630630630630631</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74034334763948495</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.80882352941176472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88498402555910538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="145147008"/>
-        <c:axId val="145148544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="145147008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="240"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145148544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="60"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="145148544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145147008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Teensy 3.6 Current</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per MHz</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14497462817147858"/>
-          <c:y val="0.16767172302744401"/>
-          <c:w val="0.74256649168853894"/>
-          <c:h val="0.61817695726575028"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Raw Table and Graphs'!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using delay();</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$H$9:$H$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.46833333333333338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47592592592592592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4921875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51607142857142863</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53819444444444442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53583333333333327</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.578125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64722222222222225</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3041666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Raw Table and Graphs'!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Using asm(" WFI");</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$B$9:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$I$9:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.28083333333333338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30312500000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3183333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32976190476190476</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36916666666666664</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.40833333333333338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47916666666666669</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1541666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="145361920"/>
-        <c:axId val="145392768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="145361920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="260"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CPU Speed (MHz)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145392768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="60"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="145392768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Current Draw (mA/MHz)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145361920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.58088823272090984"/>
-          <c:y val="0.18845791016843991"/>
-          <c:w val="0.28855621172353457"/>
-          <c:h val="0.14017766592738384"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Estimated</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Battery Life</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Teensy</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> 3.6, Gain Only, Two SPW2430 Mics</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14497462817147858"/>
-          <c:y val="0.19867948442882391"/>
-          <c:w val="0.74256649168853894"/>
-          <c:h val="0.58716919586437033"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Raw Table and Graphs'!$M$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>180 MHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$M$9:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.1001100110011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6501650165016502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8503850385038501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5005500550055002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3509350935093511</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.001100110011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.201320132013201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.002200220022001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Raw Table and Graphs'!$N$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>180 MHz "WFI"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$L$9:$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Raw Table and Graphs'!$N$9:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.7452006980802792</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6178010471204192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1082024432809776</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.7260034904013963</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.834205933682375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.452006980802793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.942408376963353</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34.904013961605585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="149970944"/>
-        <c:axId val="149972864"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="149970944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Battery Capacity</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mA-hrs)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149972864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="149972864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149970944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.58644378827646548"/>
-          <c:y val="0.63419448031327608"/>
-          <c:w val="0.28855621172353457"/>
-          <c:h val="0.12079781505152141"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1655,7 +1619,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1687,7 +1651,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1696,15 +1660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1719,7 +1683,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1727,116 +1691,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3629025" y="4552950"/>
-          <a:ext cx="0" cy="1895475"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="623887" y="3895725"/>
+          <a:ext cx="4572000" cy="3276599"/>
+          <a:chOff x="623887" y="3895725"/>
+          <a:chExt cx="4572000" cy="3276599"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="623887" y="3895725"/>
+          <a:ext cx="4572000" cy="3276599"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3629025" y="4552950"/>
+            <a:ext cx="0" cy="1895475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="5886450"/>
+            <a:ext cx="606063" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Default</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Speed</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="606063" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3324225" y="5886450"/>
-          <a:ext cx="606063" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Default</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Speed</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2332,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2370,396 +2353,396 @@
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="2:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="2:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="12" t="str">
         <f>C8</f>
         <v>Using
 delay()</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="12" t="str">
         <f>D8</f>
         <v>Using
 asm(" WFI")</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>240</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>112.4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>67.400000000000006</v>
       </c>
-      <c r="E9" s="18">
-        <f>C9/$B9</f>
+      <c r="E9" s="16">
+        <f t="shared" ref="E9:E19" si="0">C9/$B9</f>
         <v>0.46833333333333338</v>
       </c>
-      <c r="F9" s="18">
-        <f>D9/$B9</f>
+      <c r="F9" s="16">
+        <f t="shared" ref="F9:F19" si="1">D9/$B9</f>
         <v>0.28083333333333338</v>
       </c>
-      <c r="G9" s="19">
-        <f>D9/C9</f>
+      <c r="G9" s="17">
+        <f t="shared" ref="G9:G19" si="2">D9/C9</f>
         <v>0.59964412811387902</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>100</v>
       </c>
-      <c r="K9" s="24">
-        <f>$J9/C$12</f>
+      <c r="K9" s="16">
+        <f t="shared" ref="K9:L16" si="3">$J9/C$12</f>
         <v>1.1001100110011</v>
       </c>
-      <c r="L9" s="24">
-        <f>$J9/D$12</f>
+      <c r="L9" s="16">
+        <f t="shared" si="3"/>
         <v>1.7452006980802792</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>216</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>102.8</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>62.4</v>
       </c>
-      <c r="E10" s="18">
-        <f>C10/$B10</f>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
         <v>0.47592592592592592</v>
       </c>
-      <c r="F10" s="18">
-        <f>D10/$B10</f>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
         <v>0.28888888888888886</v>
       </c>
-      <c r="G10" s="19">
-        <f>D10/C10</f>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
         <v>0.60700389105058361</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>150</v>
       </c>
-      <c r="K10" s="24">
-        <f>$J10/C$12</f>
+      <c r="K10" s="16">
+        <f t="shared" si="3"/>
         <v>1.6501650165016502</v>
       </c>
-      <c r="L10" s="24">
-        <f>$J10/D$12</f>
+      <c r="L10" s="16">
+        <f t="shared" si="3"/>
         <v>2.6178010471204192</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>192</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>94.5</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>58.2</v>
       </c>
-      <c r="E11" s="18">
-        <f>C11/$B11</f>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
         <v>0.4921875</v>
       </c>
-      <c r="F11" s="18">
-        <f>D11/$B11</f>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
         <v>0.30312500000000003</v>
       </c>
-      <c r="G11" s="19">
-        <f>D11/C11</f>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
         <v>0.61587301587301591</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>350</v>
       </c>
-      <c r="K11" s="21">
-        <f>$J11/C$12</f>
+      <c r="K11" s="19">
+        <f t="shared" si="3"/>
         <v>3.8503850385038501</v>
       </c>
-      <c r="L11" s="21">
-        <f>$J11/D$12</f>
+      <c r="L11" s="19">
+        <f t="shared" si="3"/>
         <v>6.1082024432809776</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>180</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>90.9</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>57.3</v>
       </c>
-      <c r="E12" s="21">
-        <f>C12/$B12</f>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
         <v>0.505</v>
       </c>
-      <c r="F12" s="21">
-        <f>D12/$B12</f>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
         <v>0.3183333333333333</v>
       </c>
-      <c r="G12" s="22">
-        <f>D12/C12</f>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
         <v>0.63036303630363033</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>500</v>
       </c>
-      <c r="K12" s="24">
-        <f>$J12/C$12</f>
+      <c r="K12" s="16">
+        <f t="shared" si="3"/>
         <v>5.5005500550055002</v>
       </c>
-      <c r="L12" s="24">
-        <f>$J12/D$12</f>
+      <c r="L12" s="16">
+        <f t="shared" si="3"/>
         <v>8.7260034904013963</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>168</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>86.7</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>55.4</v>
       </c>
-      <c r="E13" s="18">
-        <f>C13/$B13</f>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
         <v>0.51607142857142863</v>
       </c>
-      <c r="F13" s="18">
-        <f>D13/$B13</f>
+      <c r="F13" s="16">
+        <f t="shared" si="1"/>
         <v>0.32976190476190476</v>
       </c>
-      <c r="G13" s="19">
-        <f>D13/C13</f>
+      <c r="G13" s="17">
+        <f t="shared" si="2"/>
         <v>0.63898500576701267</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>850</v>
       </c>
-      <c r="K13" s="24">
-        <f>$J13/C$12</f>
+      <c r="K13" s="16">
+        <f t="shared" si="3"/>
         <v>9.3509350935093511</v>
       </c>
-      <c r="L13" s="25">
-        <f>$J13/D$12</f>
+      <c r="L13" s="21">
+        <f t="shared" si="3"/>
         <v>14.834205933682375</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>144</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>77.5</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>50.4</v>
       </c>
-      <c r="E14" s="18">
-        <f>C14/$B14</f>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
         <v>0.53819444444444442</v>
       </c>
-      <c r="F14" s="18">
-        <f>D14/$B14</f>
+      <c r="F14" s="16">
+        <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="G14" s="19">
-        <f>D14/C14</f>
+      <c r="G14" s="17">
+        <f t="shared" si="2"/>
         <v>0.65032258064516124</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>1000</v>
       </c>
-      <c r="K14" s="25">
-        <f>$J14/C$12</f>
+      <c r="K14" s="21">
+        <f t="shared" si="3"/>
         <v>11.001100110011</v>
       </c>
-      <c r="L14" s="25">
-        <f>$J14/D$12</f>
+      <c r="L14" s="21">
+        <f t="shared" si="3"/>
         <v>17.452006980802793</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>120</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>64.3</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>44.3</v>
       </c>
-      <c r="E15" s="18">
-        <f>C15/$B15</f>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
         <v>0.53583333333333327</v>
       </c>
-      <c r="F15" s="18">
-        <f>D15/$B15</f>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
         <v>0.36916666666666664</v>
       </c>
-      <c r="G15" s="19">
-        <f>D15/C15</f>
+      <c r="G15" s="17">
+        <f t="shared" si="2"/>
         <v>0.68895800933125972</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <v>1200</v>
       </c>
-      <c r="K15" s="25">
-        <f>$J15/C$12</f>
+      <c r="K15" s="21">
+        <f t="shared" si="3"/>
         <v>13.201320132013201</v>
       </c>
-      <c r="L15" s="25">
-        <f>$J15/D$12</f>
+      <c r="L15" s="21">
+        <f t="shared" si="3"/>
         <v>20.942408376963353</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>96</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>55.5</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>39.200000000000003</v>
       </c>
-      <c r="E16" s="18">
-        <f>C16/$B16</f>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
         <v>0.578125</v>
       </c>
-      <c r="F16" s="18">
-        <f>D16/$B16</f>
+      <c r="F16" s="16">
+        <f t="shared" si="1"/>
         <v>0.40833333333333338</v>
       </c>
-      <c r="G16" s="19">
-        <f>D16/C16</f>
+      <c r="G16" s="17">
+        <f t="shared" si="2"/>
         <v>0.70630630630630631</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <v>2000</v>
       </c>
-      <c r="K16" s="25">
-        <f>$J16/C$12</f>
+      <c r="K16" s="21">
+        <f t="shared" si="3"/>
         <v>22.002200220022001</v>
       </c>
-      <c r="L16" s="25">
-        <f>$J16/D$12</f>
+      <c r="L16" s="21">
+        <f t="shared" si="3"/>
         <v>34.904013961605585</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>72</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>46.6</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>34.5</v>
       </c>
-      <c r="E17" s="18">
-        <f>C17/$B17</f>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
         <v>0.64722222222222225</v>
       </c>
-      <c r="F17" s="18">
-        <f>D17/$B17</f>
+      <c r="F17" s="16">
+        <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="G17" s="19">
-        <f>D17/C17</f>
+      <c r="G17" s="17">
+        <f t="shared" si="2"/>
         <v>0.74034334763948495</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>48</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>40.799999999999997</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>33</v>
       </c>
-      <c r="E18" s="18">
-        <f>C18/$B18</f>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F18" s="18">
-        <f>D18/$B18</f>
+      <c r="F18" s="16">
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="G18" s="19">
-        <f>D18/C18</f>
+      <c r="G18" s="17">
+        <f t="shared" si="2"/>
         <v>0.80882352941176472</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>24</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>31.3</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>27.7</v>
       </c>
-      <c r="E19" s="18">
-        <f>C19/$B19</f>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
         <v>1.3041666666666667</v>
       </c>
-      <c r="F19" s="18">
-        <f>D19/$B19</f>
+      <c r="F19" s="16">
+        <f t="shared" si="1"/>
         <v>1.1541666666666666</v>
       </c>
-      <c r="G19" s="19">
-        <f>D19/C19</f>
+      <c r="G19" s="17">
+        <f t="shared" si="2"/>
         <v>0.88498402555910538</v>
       </c>
     </row>
@@ -2777,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
+++ b/2016-11-23 Teensy 3.6 Current Draw/2016-11-14 Teensy 3.6 Current Draw for Blog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Pretty Table" sheetId="4" r:id="rId1"/>
@@ -87,11 +87,11 @@
 asm(" WFI");</t>
   </si>
   <si>
-    <t>Estimated Battery Life</t>
+    <t>Capacity
+(mA-hr)</t>
   </si>
   <si>
-    <t>Capacity
-(mA-hr)</t>
+    <t>Estimated Battery Life (Hrs)</t>
   </si>
 </sst>
 </file>
@@ -407,11 +407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222118656"/>
-        <c:axId val="222120192"/>
+        <c:axId val="149636608"/>
+        <c:axId val="149638144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222118656"/>
+        <c:axId val="149636608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -423,13 +423,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222120192"/>
+        <c:crossAx val="149638144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222120192"/>
+        <c:axId val="149638144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222118656"/>
+        <c:crossAx val="149636608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,11 +724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222141056"/>
-        <c:axId val="222364416"/>
+        <c:axId val="149659008"/>
+        <c:axId val="149661184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222141056"/>
+        <c:axId val="149659008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -759,13 +759,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222364416"/>
+        <c:crossAx val="149661184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222364416"/>
+        <c:axId val="149661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -796,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222141056"/>
+        <c:crossAx val="149659008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1080,11 +1080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222386048"/>
-        <c:axId val="222392320"/>
+        <c:axId val="149582208"/>
+        <c:axId val="149584128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222386048"/>
+        <c:axId val="149582208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200"/>
@@ -1119,12 +1119,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222392320"/>
+        <c:crossAx val="149584128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222392320"/>
+        <c:axId val="149584128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1155,7 +1155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222386048"/>
+        <c:crossAx val="149582208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1479,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222091520"/>
-        <c:axId val="222093696"/>
+        <c:axId val="149684992"/>
+        <c:axId val="149686912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222091520"/>
+        <c:axId val="149684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1514,13 +1514,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222093696"/>
+        <c:crossAx val="149686912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222093696"/>
+        <c:axId val="149686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222091520"/>
+        <c:crossAx val="149684992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2330,7 +2330,8 @@
     <col min="7" max="7" width="13.140625" style="7" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="16" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -2368,7 +2369,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="22"/>
     </row>
@@ -2396,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>20</v>
@@ -2760,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
